--- a/_raw/H6N1cali_pig_sera_X1_10_25_01.xlsx
+++ b/_raw/H6N1cali_pig_sera_X1_10_25_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SFSDI\MDVAFD\VIFU\Platereader FLUOstar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hilarius\OneDrive - Danmarks Tekniske Universitet\Dokumenter\Antigenic-Mapping-of-NA\_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777F747F-64DD-4901-9633-99D5C5736DD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE323A51-781E-4089-8202-2DC660738111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17535" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="End point" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -341,9 +352,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -363,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -378,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -399,15 +409,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -693,56 +699,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -750,1062 +756,1062 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>20635</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>8593</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>32461</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>19804</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>41440</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>12240</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>7525</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>217603</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>13445</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>9921</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="17">
         <v>368942</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>52061</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>85857</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>144211</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>72517</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>143051</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>45957</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>45581</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>350018</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>64959</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>47725</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="18">
         <v>369898</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <v>896</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>150132</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>223381</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>255557</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>188826</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>265538</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>130538</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>160672</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>354851</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>183265</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>161246</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="18">
         <v>361682</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
         <v>8818</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>257501</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>287025</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>313495</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>293681</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>324232</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>257024</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>287320</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>366805</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>301231</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>288352</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="18">
         <v>361601</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="9">
         <v>56379</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>335322</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>333922</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>358460</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>327047</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>356941</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>335230</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>346041</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>370122</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>358577</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>357759</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="13">
         <v>504</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="9">
         <v>215461</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>348147</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>366358</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>354421</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>341930</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>357560</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>360207</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>359000</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>373210</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <v>365745</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>379738</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="13">
         <v>429</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="9">
         <v>316509</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>363058</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>361277</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>346034</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>339523</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>349215</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>348380</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>350736</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>217895</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>365799</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <v>350898</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="13">
         <v>343</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="9">
         <v>371841</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>342967</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>349158</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>340161</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>347380</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>336034</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <v>382930</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>384552</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="11">
         <v>359707</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="11">
         <v>356967</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="11">
         <v>355840</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="14">
         <v>495</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="12">
         <v>368557</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L24" s="16" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L24" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L25" s="20">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L25" s="19">
         <f>AVERAGE(L20:L23)</f>
         <v>442.75</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="P27" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <f>B16-$L$25</f>
         <v>20192.25</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <f t="shared" ref="C28:K28" si="0">C16-$L$25</f>
         <v>8150.25</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <f t="shared" si="0"/>
         <v>32018.25</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="21">
         <f t="shared" si="0"/>
         <v>19361.25</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="21">
         <f t="shared" si="0"/>
         <v>40997.25</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="21">
         <f t="shared" si="0"/>
         <v>11797.25</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="21">
         <f t="shared" si="0"/>
         <v>7082.25</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="21">
         <f t="shared" si="0"/>
         <v>217160.25</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="21">
         <f t="shared" si="0"/>
         <v>13002.25</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="21">
         <f t="shared" si="0"/>
         <v>9478.25</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="21">
         <f>L16-$L$25</f>
         <v>368499.25</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="22">
         <f t="shared" ref="M28" si="1">M16-$L$25</f>
         <v>-104.75</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O28" s="8">
         <v>30</v>
       </c>
-      <c r="P28" s="32">
+      <c r="P28" s="29">
         <f>LOG10(O28)</f>
         <v>1.4771212547196624</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="23">
         <f t="shared" ref="B29:K35" si="2">B17-$L$25</f>
         <v>51618.25</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="19">
         <f t="shared" si="2"/>
         <v>85414.25</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="19">
         <f t="shared" si="2"/>
         <v>143768.25</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="19">
         <f t="shared" si="2"/>
         <v>72074.25</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="19">
         <f t="shared" si="2"/>
         <v>142608.25</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="19">
         <f t="shared" si="2"/>
         <v>45514.25</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="19">
         <f t="shared" si="2"/>
         <v>45138.25</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="19">
         <f t="shared" si="2"/>
         <v>349575.25</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="19">
         <f t="shared" si="2"/>
         <v>64516.25</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="19">
         <f t="shared" si="2"/>
         <v>47282.25</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="19">
         <f t="shared" ref="L29:M29" si="3">L17-$L$25</f>
         <v>369455.25</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="24">
         <f t="shared" si="3"/>
         <v>453.25</v>
       </c>
-      <c r="O29" s="31">
+      <c r="O29" s="8">
         <f>O28*4</f>
         <v>120</v>
       </c>
-      <c r="P29" s="32">
+      <c r="P29" s="29">
         <f t="shared" ref="P29:P35" si="4">LOG10(O29)</f>
         <v>2.0791812460476247</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="23">
         <f t="shared" si="2"/>
         <v>149689.25</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="19">
         <f t="shared" si="2"/>
         <v>222938.25</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="19">
         <f t="shared" si="2"/>
         <v>255114.25</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="19">
         <f t="shared" si="2"/>
         <v>188383.25</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="19">
         <f t="shared" si="2"/>
         <v>265095.25</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="19">
         <f t="shared" si="2"/>
         <v>130095.25</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="19">
         <f t="shared" si="2"/>
         <v>160229.25</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="19">
         <f t="shared" si="2"/>
         <v>354408.25</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="19">
         <f t="shared" si="2"/>
         <v>182822.25</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K30" s="19">
         <f t="shared" si="2"/>
         <v>160803.25</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="19">
         <f t="shared" ref="L30:M30" si="5">L18-$L$25</f>
         <v>361239.25</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30" s="24">
         <f t="shared" si="5"/>
         <v>8375.25</v>
       </c>
-      <c r="O30" s="31">
+      <c r="O30" s="8">
         <f t="shared" ref="O30:O35" si="6">O29*4</f>
         <v>480</v>
       </c>
-      <c r="P30" s="32">
+      <c r="P30" s="29">
         <f t="shared" si="4"/>
         <v>2.6812412373755872</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="23">
         <f t="shared" si="2"/>
         <v>257058.25</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="19">
         <f t="shared" si="2"/>
         <v>286582.25</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="19">
         <f t="shared" si="2"/>
         <v>313052.25</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="19">
         <f t="shared" si="2"/>
         <v>293238.25</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="19">
         <f t="shared" si="2"/>
         <v>323789.25</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="19">
         <f t="shared" si="2"/>
         <v>256581.25</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="19">
         <f t="shared" si="2"/>
         <v>286877.25</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31" s="19">
         <f t="shared" si="2"/>
         <v>366362.25</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="19">
         <f t="shared" si="2"/>
         <v>300788.25</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K31" s="19">
         <f t="shared" si="2"/>
         <v>287909.25</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L31" s="19">
         <f t="shared" ref="L31:M31" si="7">L19-$L$25</f>
         <v>361158.25</v>
       </c>
-      <c r="M31" s="26">
+      <c r="M31" s="24">
         <f t="shared" si="7"/>
         <v>55936.25</v>
       </c>
-      <c r="O31" s="31">
+      <c r="O31" s="8">
         <f t="shared" si="6"/>
         <v>1920</v>
       </c>
-      <c r="P31" s="32">
+      <c r="P31" s="29">
         <f t="shared" si="4"/>
         <v>3.2833012287035497</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="23">
         <f t="shared" si="2"/>
         <v>334879.25</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="19">
         <f t="shared" si="2"/>
         <v>333479.25</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="19">
         <f t="shared" si="2"/>
         <v>358017.25</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="19">
         <f t="shared" si="2"/>
         <v>326604.25</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="19">
         <f t="shared" si="2"/>
         <v>356498.25</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="19">
         <f t="shared" si="2"/>
         <v>334787.25</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="19">
         <f t="shared" si="2"/>
         <v>345598.25</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I32" s="19">
         <f t="shared" si="2"/>
         <v>369679.25</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="19">
         <f t="shared" si="2"/>
         <v>358134.25</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K32" s="19">
         <f t="shared" si="2"/>
         <v>357316.25</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="19">
         <f t="shared" ref="L32:M32" si="8">L20-$L$25</f>
         <v>61.25</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="24">
         <f t="shared" si="8"/>
         <v>215018.25</v>
       </c>
-      <c r="O32" s="31">
+      <c r="O32" s="8">
         <f t="shared" si="6"/>
         <v>7680</v>
       </c>
-      <c r="P32" s="32">
+      <c r="P32" s="29">
         <f t="shared" si="4"/>
         <v>3.8853612200315122</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="23">
         <f t="shared" si="2"/>
         <v>347704.25</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="19">
         <f t="shared" si="2"/>
         <v>365915.25</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="19">
         <f t="shared" si="2"/>
         <v>353978.25</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="19">
         <f t="shared" si="2"/>
         <v>341487.25</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="19">
         <f t="shared" si="2"/>
         <v>357117.25</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="19">
         <f t="shared" si="2"/>
         <v>359764.25</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="19">
         <f t="shared" si="2"/>
         <v>358557.25</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I33" s="19">
         <f t="shared" si="2"/>
         <v>372767.25</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="19">
         <f t="shared" si="2"/>
         <v>365302.25</v>
       </c>
-      <c r="K33" s="25">
+      <c r="K33" s="19">
         <f t="shared" si="2"/>
         <v>379295.25</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="19">
         <f t="shared" ref="L33:M33" si="9">L21-$L$25</f>
         <v>-13.75</v>
       </c>
-      <c r="M33" s="26">
+      <c r="M33" s="24">
         <f t="shared" si="9"/>
         <v>316066.25</v>
       </c>
-      <c r="O33" s="31">
+      <c r="O33" s="8">
         <f t="shared" si="6"/>
         <v>30720</v>
       </c>
-      <c r="P33" s="32">
+      <c r="P33" s="29">
         <f t="shared" si="4"/>
         <v>4.4874212113594742</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="23">
         <f t="shared" si="2"/>
         <v>362615.25</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="19">
         <f t="shared" si="2"/>
         <v>360834.25</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="19">
         <f t="shared" si="2"/>
         <v>345591.25</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="19">
         <f t="shared" si="2"/>
         <v>339080.25</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="19">
         <f t="shared" si="2"/>
         <v>348772.25</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="19">
         <f t="shared" si="2"/>
         <v>347937.25</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="19">
         <f t="shared" si="2"/>
         <v>350293.25</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="19">
         <f t="shared" si="2"/>
         <v>217452.25</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="19">
         <f t="shared" si="2"/>
         <v>365356.25</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="19">
         <f t="shared" si="2"/>
         <v>350455.25</v>
       </c>
-      <c r="L34" s="25">
+      <c r="L34" s="19">
         <f t="shared" ref="L34:M34" si="10">L22-$L$25</f>
         <v>-99.75</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M34" s="24">
         <f t="shared" si="10"/>
         <v>371398.25</v>
       </c>
-      <c r="O34" s="31">
+      <c r="O34" s="8">
         <f t="shared" si="6"/>
         <v>122880</v>
       </c>
-      <c r="P34" s="32">
+      <c r="P34" s="29">
         <f t="shared" si="4"/>
         <v>5.0894812026874368</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="25">
         <f t="shared" si="2"/>
         <v>342524.25</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="26">
         <f t="shared" si="2"/>
         <v>348715.25</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="26">
         <f t="shared" si="2"/>
         <v>339718.25</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="26">
         <f t="shared" si="2"/>
         <v>346937.25</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="26">
         <f t="shared" si="2"/>
         <v>335591.25</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="26">
         <f t="shared" si="2"/>
         <v>382487.25</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="26">
         <f t="shared" si="2"/>
         <v>384109.25</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="26">
         <f t="shared" si="2"/>
         <v>359264.25</v>
       </c>
-      <c r="J35" s="28">
+      <c r="J35" s="26">
         <f t="shared" si="2"/>
         <v>356524.25</v>
       </c>
-      <c r="K35" s="28">
+      <c r="K35" s="26">
         <f t="shared" si="2"/>
         <v>355397.25</v>
       </c>
-      <c r="L35" s="28">
+      <c r="L35" s="26">
         <f t="shared" ref="L35:M35" si="11">L23-$L$25</f>
         <v>52.25</v>
       </c>
-      <c r="M35" s="29">
+      <c r="M35" s="27">
         <f t="shared" si="11"/>
         <v>368114.25</v>
       </c>
-      <c r="O35" s="31">
+      <c r="O35" s="8">
         <f t="shared" si="6"/>
         <v>491520</v>
       </c>
-      <c r="P35" s="32">
+      <c r="P35" s="29">
         <f t="shared" si="4"/>
         <v>5.6915411940153993</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J36" t="s">
         <v>49</v>
       </c>
-      <c r="L36" s="30">
+      <c r="L36" s="28">
         <f>AVERAGE(L28:L31)/2</f>
         <v>182544</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="34" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B37" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="30">
         <v>2.8593997965368598</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="29">
         <f>POWER(10,C38)</f>
         <v>723.4354669274112</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="30">
         <v>2.5330982183154198</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="29">
         <f t="shared" ref="D39:D48" si="12">POWER(10,C39)</f>
         <v>341.27008318200302</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="30">
         <v>2.2742845530177802</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="29">
         <f t="shared" si="12"/>
         <v>188.05485628264486</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="30">
         <v>2.65119115249531</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="29">
         <f t="shared" si="12"/>
         <v>447.91040627123243</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="30">
         <v>2.2629628150477901</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="29">
         <f t="shared" si="12"/>
         <v>183.21575435476004</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="30">
         <v>2.9228591895563798</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="29">
         <f t="shared" si="12"/>
         <v>837.25777567637567</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="30">
         <v>2.77951851288076</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="29">
         <f t="shared" si="12"/>
         <v>601.89191949045858</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="30">
         <v>0</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="29">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C46" s="30">
         <v>2.67631511805922</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D46" s="29">
         <f t="shared" si="12"/>
         <v>474.58621354298998</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="30">
         <v>2.7724604166323101</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="29">
         <f t="shared" si="12"/>
         <v>592.18910988923665</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B48" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="33">
+      <c r="C48" s="30">
         <v>3.8001551489078298</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="29">
         <f t="shared" si="12"/>
         <v>6311.8279019675256</v>
       </c>
@@ -1850,163 +1856,163 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>2755</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
